--- a/task_1/data/students_result.xlsx
+++ b/task_1/data/students_result.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Средняя оценка" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,7 +421,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Предмет</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Средняя оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Математика</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Информатика</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
